--- a/emprendimiento.xlsx
+++ b/emprendimiento.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brandon/MyProjects/compareExcelEbcRuby/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B17D3B7-8F9A-A54A-ACB7-86AB99A9EEC6}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83C7A413-D0E3-2E49-9184-5BA97CB12D6A}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="18">
   <si>
     <t>CLAVE</t>
   </si>
@@ -102,21 +102,6 @@
     <t>6.1 Estrategias para primeras ventas
 6.2 Proceso para aplicar a aceleradoras e incubadoras
 6.3 Elevator pitch</t>
-  </si>
-  <si>
-    <t>EMP27708</t>
-  </si>
-  <si>
-    <t>EMP27709</t>
-  </si>
-  <si>
-    <t>EMP27710</t>
-  </si>
-  <si>
-    <t>EMP27711</t>
-  </si>
-  <si>
-    <t>EMP27712</t>
   </si>
 </sst>
 </file>
@@ -550,7 +535,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="A3" sqref="A3:A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -591,7 +576,7 @@
     </row>
     <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>5</v>
@@ -605,7 +590,7 @@
     </row>
     <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>5</v>
@@ -619,7 +604,7 @@
     </row>
     <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>5</v>
@@ -633,7 +618,7 @@
     </row>
     <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>5</v>
@@ -647,7 +632,7 @@
     </row>
     <row r="7" spans="1:4" ht="45" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>5</v>
